--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_52.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_52.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yuki Takahashi</t>
+          <t>Yasuhiro Yamazaki</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
